--- a/jc/20201026/ewas.xlsx
+++ b/jc/20201026/ewas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/ms13525_bristol_ac_uk/Documents/Documents/GitHub/perishky.github.io/jc/20201026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="11_F25DC773A252ABDACC10485D71DF66F05BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4A2793BC-6C15-41F4-91E9-C3C9E3845858}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="11_F25DC773A252ABDACC10485D71DF66F05BDE58F3" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2B3CDA09-A911-42A0-BFF5-62C63E30FA67}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,83 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
-  <si>
-    <t>Associations of maternal early-pregnancy blood glucose and insulin concentrations with DNA methylation in newborns.</t>
-  </si>
-  <si>
-    <t>Clin Epigenetics</t>
-  </si>
-  <si>
-    <t>DNA methylation study of Huntington's disease and motor progression in patients and in animal models.</t>
-  </si>
-  <si>
-    <t>Nat Commun</t>
-  </si>
-  <si>
-    <t>An epigenome-wide association study identifies multiple DNA methylation markers of exposure to endocrine disruptors.</t>
-  </si>
-  <si>
-    <t>Environ Int</t>
-  </si>
-  <si>
-    <t>DNA methylation mediates the effect of cocaine use on HIV severity.</t>
-  </si>
-  <si>
-    <t>A germ cell-specific ageing pattern in otherwise healthy men.</t>
-  </si>
-  <si>
-    <t>Aging Cell</t>
-  </si>
-  <si>
-    <t>Subjective mental health, incidence of depressive symptoms in later life, and the role of epigenetics: results from two longitudinal cohort studies.</t>
-  </si>
-  <si>
-    <t>Transl Psychiatry</t>
-  </si>
-  <si>
-    <t>Epigenome-wide analysis identifies genes and pathways linked to acoustic cry variation in preterm infants.</t>
-  </si>
-  <si>
-    <t>Pediatr Res</t>
-  </si>
-  <si>
-    <t>Genome Med</t>
-  </si>
-  <si>
-    <t>Placental Epigenome-Wide Association Study Identified Loci Associated with Childhood Adiposity at 3 Years of Age.</t>
-  </si>
-  <si>
-    <t>Int J Mol Sci</t>
-  </si>
-  <si>
-    <t>Immediate and durable effects of maternal tobacco consumption alter placental DNA methylation in enhancer and imprinted gene-containing regions.</t>
-  </si>
-  <si>
-    <t>BMC Med</t>
-  </si>
-  <si>
-    <t>Cord blood DNA methylome in newborns later diagnosed with autism spectrum disorder reflects early dysregulation of neurodevelopmental and X-linked genes.</t>
-  </si>
-  <si>
-    <t>Epigenome-wide association study of Alzheimer's disease replicates 22 differentially methylated positions and 30 differentially methylated regions.</t>
-  </si>
-  <si>
-    <t>Birth weight associations with DNA methylation differences in an adult population.</t>
-  </si>
-  <si>
-    <t>Epigenetics</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>PMID</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -226,27 +154,6 @@
   </si>
   <si>
     <t>Mental health-related quality of life</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
-    <t>Exposure</t>
-  </si>
-  <si>
-    <t>Genotype</t>
-  </si>
-  <si>
-    <t>Germ cells</t>
-  </si>
-  <si>
-    <t>Phenotype</t>
-  </si>
-  <si>
-    <t>Disease</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
 </sst>
 </file>
@@ -577,383 +484,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="32.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
-    <col min="5" max="5" width="19.90625" style="1" customWidth="1"/>
-    <col min="6" max="8" width="18.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="43.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.90625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="18.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>33069246</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="3">
+        <v>134</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>32916427</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>622</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>32928285</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1435</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>33079621</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1757</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>32894192</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>935</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>33023569</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3">
+        <v>568</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>32913184</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>32951333</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>198</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>32958748</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="11" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>32967004</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D11" s="1">
+        <v>335</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>33054850</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3">
+        <v>152</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>33003475</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="2">
-        <v>33069246</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="3">
-        <v>134</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3">
-        <v>32916427</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="1">
-        <v>622</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4">
-        <v>32928285</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1435</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="2">
-        <v>33079621</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1757</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6">
-        <v>32894192</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="D13" s="3">
+        <v>262</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
-        <v>935</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="2">
-        <v>33023569</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="3">
-        <v>568</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8">
-        <v>32913184</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9">
-        <v>32951333</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="1">
-        <v>198</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>32958748</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11">
-        <v>32967004</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="1">
-        <v>335</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2">
-        <v>33054850</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="3">
-        <v>152</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="54.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="2">
-        <v>33003475</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="3">
-        <v>262</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="3"/>
+      <c r="F13" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I13">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F13">
+    <sortCondition ref="C2:C13"/>
     <sortCondition ref="A2:A13"/>
-    <sortCondition ref="F2:F13"/>
-    <sortCondition ref="B2:B13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
